--- a/DwellScanningEyeTrack/img_training/Week9/map6.xlsx
+++ b/DwellScanningEyeTrack/img_training/Week9/map6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Final - mixed blocks\Block 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Take 2\Final - mixed blocks\Block 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1006,19 +1006,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1106,43 +1103,43 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
         <v>24</v>
@@ -1168,7 +1165,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -1177,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -1186,25 +1183,25 @@
         <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U3" t="s">
         <v>24</v>
@@ -1224,25 +1221,25 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
         <v>23</v>
@@ -1257,19 +1254,19 @@
         <v>23</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
         <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T4" t="s">
         <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1286,52 +1283,52 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T5" t="s">
         <v>24</v>
       </c>
       <c r="U5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1351,34 +1348,34 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="s">
         <v>23</v>
@@ -1387,10 +1384,10 @@
         <v>23</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U6" t="s">
         <v>23</v>
@@ -1410,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -1437,25 +1434,25 @@
         <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
         <v>24</v>
       </c>
       <c r="S7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T7" t="s">
         <v>23</v>
       </c>
       <c r="U7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1472,7 +1469,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -1484,7 +1481,7 @@
         <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -1493,10 +1490,10 @@
         <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
         <v>23</v>
@@ -1508,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
         <v>23</v>
       </c>
       <c r="T8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U8" t="s">
         <v>24</v>
@@ -1534,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -1546,31 +1543,31 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
         <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
         <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s">
         <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S9" t="s">
         <v>23</v>
@@ -1596,40 +1593,40 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
         <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" t="s">
         <v>23</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
         <v>24</v>
@@ -1638,10 +1635,10 @@
         <v>23</v>
       </c>
       <c r="T10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1664,7 +1661,7 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>
@@ -1703,7 +1700,7 @@
         <v>24</v>
       </c>
       <c r="U11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1723,10 +1720,10 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -1735,22 +1732,22 @@
         <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
         <v>23</v>
@@ -1759,13 +1756,13 @@
         <v>24</v>
       </c>
       <c r="S12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1788,7 +1785,7 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
@@ -1797,16 +1794,16 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
         <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s">
         <v>23</v>
@@ -1815,7 +1812,7 @@
         <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R13" t="s">
         <v>24</v>
@@ -1824,7 +1821,7 @@
         <v>23</v>
       </c>
       <c r="T13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U13" t="s">
         <v>24</v>
@@ -1844,43 +1841,43 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
         <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s">
         <v>23</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q14" t="s">
         <v>23</v>
       </c>
       <c r="R14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S14" t="s">
         <v>23</v>
@@ -1912,34 +1909,34 @@
         <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
         <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
         <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R15" t="s">
         <v>23</v>
@@ -1974,7 +1971,7 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
@@ -1986,28 +1983,28 @@
         <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
         <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R16" t="s">
         <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T16" t="s">
         <v>24</v>
@@ -2036,7 +2033,7 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -2051,10 +2048,10 @@
         <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s">
         <v>24</v>
@@ -2075,7 +2072,7 @@
         <v>24</v>
       </c>
       <c r="U17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2098,13 +2095,13 @@
         <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
         <v>23</v>
@@ -2113,7 +2110,7 @@
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18" t="s">
         <v>23</v>
@@ -2128,7 +2125,7 @@
         <v>24</v>
       </c>
       <c r="R18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S18" t="s">
         <v>24</v>
@@ -2154,7 +2151,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -2163,7 +2160,7 @@
         <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -2172,34 +2169,34 @@
         <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
         <v>23</v>
       </c>
       <c r="Q19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2222,13 +2219,13 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
         <v>24</v>
@@ -2237,10 +2234,10 @@
         <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O20" t="s">
         <v>23</v>
@@ -2255,7 +2252,7 @@
         <v>23</v>
       </c>
       <c r="S20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T20" t="s">
         <v>24</v>
@@ -2281,7 +2278,7 @@
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
         <v>24</v>
@@ -2290,40 +2287,40 @@
         <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P21" t="s">
         <v>23</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S21" t="s">
         <v>23</v>
       </c>
       <c r="T21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2340,31 +2337,31 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
         <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O22" t="s">
         <v>24</v>
@@ -2376,7 +2373,7 @@
         <v>24</v>
       </c>
       <c r="R22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S22" t="s">
         <v>23</v>
@@ -2405,7 +2402,7 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
         <v>23</v>
@@ -2417,7 +2414,7 @@
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -2426,28 +2423,28 @@
         <v>23</v>
       </c>
       <c r="N23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P23" t="s">
         <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S23" t="s">
         <v>24</v>
       </c>
       <c r="T23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2464,7 +2461,7 @@
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
         <v>23</v>
@@ -2476,10 +2473,10 @@
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
         <v>24</v>
@@ -2488,19 +2485,19 @@
         <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P24" t="s">
         <v>23</v>
       </c>
       <c r="Q24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S24" t="s">
         <v>24</v>
@@ -2509,7 +2506,7 @@
         <v>24</v>
       </c>
       <c r="U24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2532,16 +2529,16 @@
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
         <v>24</v>
@@ -2556,13 +2553,13 @@
         <v>23</v>
       </c>
       <c r="P25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S25" t="s">
         <v>23</v>
@@ -2588,10 +2585,10 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
         <v>24</v>
@@ -2600,13 +2597,13 @@
         <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
         <v>23</v>
@@ -2618,22 +2615,22 @@
         <v>23</v>
       </c>
       <c r="P26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q26" t="s">
         <v>24</v>
       </c>
       <c r="R26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
       </c>
       <c r="T26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2665,10 +2662,10 @@
         <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
         <v>24</v>
@@ -2677,13 +2674,13 @@
         <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R27" t="s">
         <v>23</v>
@@ -2695,7 +2692,7 @@
         <v>23</v>
       </c>
       <c r="U27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2712,7 +2709,7 @@
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
@@ -2727,22 +2724,22 @@
         <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
         <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="s">
         <v>23</v>
@@ -2751,10 +2748,10 @@
         <v>23</v>
       </c>
       <c r="S28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U28" t="s">
         <v>24</v>
@@ -2777,28 +2774,28 @@
         <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M29" t="s">
         <v>24</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O29" t="s">
         <v>23</v>
@@ -2810,16 +2807,16 @@
         <v>23</v>
       </c>
       <c r="R29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T29" t="s">
         <v>23</v>
       </c>
       <c r="U29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2848,31 +2845,31 @@
         <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" t="s">
         <v>23</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="s">
         <v>24</v>
       </c>
       <c r="R30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S30" t="s">
         <v>24</v>
@@ -2881,7 +2878,7 @@
         <v>24</v>
       </c>
       <c r="U30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2901,19 +2898,19 @@
         <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
         <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L31" t="s">
         <v>24</v>
@@ -2928,22 +2925,22 @@
         <v>23</v>
       </c>
       <c r="P31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q31" t="s">
         <v>24</v>
       </c>
       <c r="R31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S31" t="s">
         <v>24</v>
       </c>
       <c r="T31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
